--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17110" windowHeight="6740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataRun" sheetId="3" r:id="rId1"/>
-    <sheet name="DataAuto" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DataAuto" sheetId="1" r:id="rId2"/>
     <sheet name="Common" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="KeySearch" sheetId="5" r:id="rId4"/>
-    <sheet name="Table" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Table" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>GoToPage</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>108.62.154.41:3128</t>
+  </si>
+  <si>
+    <t>UserJavascript</t>
   </si>
 </sst>
 </file>
@@ -276,8 +279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A14" totalsRowShown="0">
-  <autoFilter ref="A1:A14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0">
+  <autoFilter ref="A1:A15"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Event"/>
   </tableColumns>
@@ -550,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -807,7 +810,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Table!$A$2:$A$14</xm:f>
+            <xm:f>Table!$A$2:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>A1 A3:A8 A10:A12 A14:A213</xm:sqref>
         </x14:dataValidation>
@@ -952,10 +955,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,6 +1036,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config.xlsx
+++ b/auto-remote-win-form/AutoSeleniumFromExcel/bin/Debug/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>GoToPage</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Sleep</t>
   </si>
   <si>
-    <t>https://accounts.spotify.com/vi-VN/login?continue=https:%2F%2Fopen.spotify.com%2F</t>
-  </si>
-  <si>
-    <t>login-button</t>
-  </si>
-  <si>
     <t>InputDataByClass</t>
   </si>
   <si>
@@ -82,12 +76,6 @@
     <t>Search</t>
   </si>
   <si>
-    <t>login-username|User</t>
-  </si>
-  <si>
-    <t>login-password|Pass</t>
-  </si>
-  <si>
     <t>//button[contains(@aria-label, 'Play')]</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>//button[@title='Enable repeat']</t>
   </si>
   <si>
-    <t>//button[@type= 'button' and text()='Follow']</t>
-  </si>
-  <si>
     <t>//button[contains(@title= 'Enable repeat')]</t>
   </si>
   <si>
@@ -112,21 +97,12 @@
     <t>FindElementForExist</t>
   </si>
   <si>
-    <t>//span[text()='Tên người dùng hoặc mật khẩu không chính xác.']</t>
-  </si>
-  <si>
     <t>Check xpath in chrome</t>
   </si>
   <si>
     <t>$x("//span[@ng-bind-html='response.error|localize:responseArguments']")</t>
   </si>
   <si>
-    <t>https://open.spotify.com/artist/{KeySearch}</t>
-  </si>
-  <si>
-    <t>//button[contains(@aria-label, 'Enable repeat')]</t>
-  </si>
-  <si>
     <t>Hana Le</t>
   </si>
   <si>
@@ -148,22 +124,34 @@
     <t>Maihuudanh13</t>
   </si>
   <si>
-    <t>23.19.176.201:3128</t>
-  </si>
-  <si>
-    <t>23.19.176.85:3128</t>
-  </si>
-  <si>
-    <t>108.62.24.152:3128</t>
-  </si>
-  <si>
-    <t>108.62.154.230:3128</t>
-  </si>
-  <si>
-    <t>108.62.154.41:3128</t>
-  </si>
-  <si>
     <t>UserJavascript</t>
+  </si>
+  <si>
+    <t>https://ad-core.ru/ads-yt-likes</t>
+  </si>
+  <si>
+    <t>CloseOtherTab</t>
+  </si>
+  <si>
+    <t>ChangeToLastTab</t>
+  </si>
+  <si>
+    <t>{"url":"https://www.youtube.com","cookies":[{"domain":".youtube.com","expirationDate":1639285363.377528,"hostOnly":false,"httpOnly":true,"name":"VISITOR_INFO1_LIVE","path":"/","sameSite":"no_restriction","secure":true,"session":false,"storeId":"0","value":"OR5izrnaRfg"},{"domain":".youtube.com","expirationDate":1687226145,"hostOnly":false,"httpOnly":false,"name":"PREF","path":"/","sameSite":"unspecified","secure":true,"session":false,"storeId":"0","value":"al=vi&amp;f4=4000000&amp;tz=Asia.Bangkok&amp;f5=20000"},{"domain":".youtube.com","hostOnly":false,"httpOnly":true,"name":"YSC","path":"/","sameSite":"no_restriction","secure":true,"session":true,"storeId":"0","value":"8x4Z5lnmoNE"},{"domain":".youtube.com","expirationDate":1624155919.362887,"hostOnly":false,"httpOnly":true,"name":"GPS","path":"/","sameSite":"unspecified","secure":true,"session":false,"storeId":"0","value":"1"},{"domain":".youtube.com","expirationDate":1687226130.843709,"hostOnly":false,"httpOnly":false,"name":"SID","path":"/","sameSite":"unspecified","secure":false,"session":false,"storeId":"0","value":"-wfQd158fqhxKhPSN2NbGUhCwNpl7Cr5DmGYCU1gBdhB9OPrqsrK2dfFW8Zof6GhpEo4Sw."},{"domain":".youtube.com","expirationDate":1687226130.843755,"hostOnly":false,"httpOnly":true,"name":"__Secure-3PSID","path":"/","sameSite":"no_restriction","secure":true,"session":false,"storeId":"0","value":"-wfQd158fqhxKhPSN2NbGUhCwNpl7Cr5DmGYCU1gBdhB9OPrp4OwJAlx3qvMkr6-b-hdiA."},{"domain":".youtube.com","expirationDate":1687226130.843772,"hostOnly":false,"httpOnly":true,"name":"HSID","path":"/","sameSite":"unspecified","secure":false,"session":false,"storeId":"0","value":"AJQswqwMVMHYg4kSd"},{"domain":".youtube.com","expirationDate":1687226130.843784,"hostOnly":false,"httpOnly":true,"name":"SSID","path":"/","sameSite":"unspecified","secure":true,"session":false,"storeId":"0","value":"AyNaMOgnivpaf6Qv-"},{"domain":".youtube.com","expirationDate":1687226130.843796,"hostOnly":false,"httpOnly":false,"name":"APISID","path":"/","sameSite":"unspecified","secure":false,"session":false,"storeId":"0","value":"QcF1RnwdZmo1fdYe/AKHS32Md1EjSskH0s"},{"domain":".youtube.com","expirationDate":1687226130.843807,"hostOnly":false,"httpOnly":false,"name":"SAPISID","path":"/","sameSite":"unspecified","secure":true,"session":false,"storeId":"0","value":"uTWbQnEr2oeBn2K9/Ang_R-T6jNqwcoClf"},{"domain":".youtube.com","expirationDate":1687226130.843818,"hostOnly":false,"httpOnly":false,"name":"__Secure-3PAPISID","path":"/","sameSite":"no_restriction","secure":true,"session":false,"storeId":"0","value":"uTWbQnEr2oeBn2K9/Ang_R-T6jNqwcoClf"},{"domain":".youtube.com","expirationDate":1687226131.139684,"hostOnly":false,"httpOnly":true,"name":"LOGIN_INFO","path":"/","sameSite":"no_restriction","secure":true,"session":false,"storeId":"0","value":"AFmmF2swRgIhAK7E3f8Qn54gnOKMffPE7Lly6sajbycYXjd3VIeWKjT0AiEAw6ofnsTu6PbCVaXwkcMz9bHXOLbQ39IO8zo_RFNrGmc:QUQ3MjNmdzFTWWVsb1VKR2RHVl90aE5XQ1JKa0t0ZjhSMHBlZC14NGlMa2NlZGdBTHdVWTVpb3l4VTY2WV9VdGsycUhIQVQ3YjJtQlpqdmcyRkFhbzdFZk5MMzNlQV9pWHJ2ZVBBZXVldlhMaG9xVEJQZkhzeGt6SV9WcXhSV0Y0RVJtZDNMVkNheHJtQVUzenV0OVRjM0tGRW1RMTdRc3Vn"},{"domain":".youtube.com","expirationDate":1655690785.600345,"hostOnly":false,"httpOnly":false,"name":"SIDCC","path":"/","sameSite":"unspecified","secure":false,"session":false,"storeId":"0","value":"AJi4QfGdB8_L2vVLNN-OBOAAvamUKGTQgHMY4eJI8Vc-26JGxwFBpd5ggoTFeHiskW65toTU"},{"domain":".youtube.com","expirationDate":1655690785.600412,"hostOnly":false,"httpOnly":true,"name":"__Secure-3PSIDCC","path":"/","sameSite":"no_restriction","secure":true,"session":false,"storeId":"0","value":"AJi4QfHSPyQoUW0oCzMhdYLoPFwXbNWGKzIqBhc4J3kBK32kscgG1suiJbQdpthCODKKszLr"}]}</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("fa fa-thumbs-o-up")[1].click()</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("flex reads_bl vip ads_row price_2 ads_check")[0].click()</t>
+  </si>
+  <si>
+    <t>document.querySelector('.style-scope.ytd-toggle-button-renderer').click();</t>
+  </si>
+  <si>
+    <t>ResfeshPage</t>
   </si>
 </sst>
 </file>
@@ -279,8 +267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0">
-  <autoFilter ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A18" totalsRowShown="0">
+  <autoFilter ref="A1:A18"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Event"/>
   </tableColumns>
@@ -554,7 +542,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,87 +556,77 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>41</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -666,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,129 +658,142 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1000</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1000</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="login-username|woehljay052@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -810,21 +801,21 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Table!$A$2:$A$15</xm:f>
+            <xm:f>Table!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>A1 A3:A8 A10:A12 A14:A213</xm:sqref>
+          <xm:sqref>A1:A4 A18:A20 A22:A221 A6:A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Table!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Table!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>A9 A13</xm:sqref>
+          <xm:sqref>A17 A21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -848,31 +839,31 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -895,57 +886,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +946,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,32 +1004,47 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
